--- a/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009855</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0538</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009856</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +532,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,13 +1099,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -844,36 +1156,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>920003</t>
+          <t>009855</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金新锐股票A</t>
+          <t>中加新兴成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.10</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9409</t>
+          <t>0.0538</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -882,348 +1194,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>920923</t>
+          <t>009856</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中金新锐股票C</t>
+          <t>中加新兴成长混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.10</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3011</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010296</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家互联互通中国优势量化策略混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2351</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001403</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商国企改革主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013721</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信达澳银景气优选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0836</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013722</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银景气优选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002271</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商安弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.85</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010297</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家互联互通中国优势量化策略混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0224</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.74</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -532,6 +549,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3308</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -891,7 +1192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1099,7 +1400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002937-兴瑞科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.77</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.74</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -549,6 +566,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -832,7 +1435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1192,7 +1795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1400,7 +2003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
